--- a/2018-19  enhancement list.xlsx
+++ b/2018-19  enhancement list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Potter\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1217CEE-0FD6-4F05-88CE-10FCDE75CFD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D13750F-8986-43A9-872A-F9D244941438}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2018-19 change requests'!$A$1:$E$26</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="338">
   <si>
     <t>Generally address the slowness of the site</t>
   </si>
@@ -116,9 +124,6 @@
     <t>Different cities, are the zip code and distance from zip going to work ok going to four new cities?</t>
   </si>
   <si>
-    <t>Use another service to login' … facebook, google, etc. Can those be more standard? I haven't tried them… do they work? Or, worst case, just remove those altogether.</t>
-  </si>
-  <si>
     <t>Deal with discounts on results list? Need to discuss</t>
   </si>
   <si>
@@ -160,9 +165,6 @@
     <t>The color of the Register, Login, and Hello Admin! Along the top is too light, hard to see/notice</t>
   </si>
   <si>
-    <t>Put a Like Us button for facebook, twitter, etc. The ones we have there just go to our page. Wondering if we can actually have it do the 'Like'. That may not be possible, I don't know how these things work. :)</t>
-  </si>
-  <si>
     <t>AM/PM camp times - Somehow need to find a way to deal with this so we don't have to enter two camps the same, maybe a camp type of '1/2 Day' or something like that</t>
   </si>
   <si>
@@ -243,12 +245,6 @@
     <t>image and logo on header (look at linked in for example). All of it bigger and more impressive looking</t>
   </si>
   <si>
-    <t>Camp Description, label suggestions… suggested sections which will be put into the descirption if they've entered something. For example, Company overview, philosophy, space/building, leader bios, etc.</t>
-  </si>
-  <si>
-    <t>Images, Maybe display images more like Facebook does, and when you click it takes you to a display of all (more like a folder)</t>
-  </si>
-  <si>
     <t>Page or Tab</t>
   </si>
   <si>
@@ -288,18 +284,12 @@
     <t>Admin. Camp Display</t>
   </si>
   <si>
-    <t>Filters (unplublished, published w/problems, years (ie show all 2017), Number of camps listed)</t>
-  </si>
-  <si>
     <t>when we move camps from one year to the next, keep a copy of the old camp.  We want to have counts and such.</t>
   </si>
   <si>
     <t>a "No camps found" message comes up when camps actually are found.</t>
   </si>
   <si>
-    <t>possibly list each camp orgs Twitter, FaceBook, etc from the camp view.  Like Brilliant Directories does.</t>
-  </si>
-  <si>
     <t>the map and the location are sometimes out of sink. The map is correct but the camp says it's 5,000 miles away</t>
   </si>
   <si>
@@ -337,9 +327,6 @@
   </si>
   <si>
     <t>Data for Anne &amp; Bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report: who is registered, who has camp but didn't publish, who publilshed, etc. </t>
   </si>
   <si>
     <t>Price Tab</t>
@@ -436,9 +423,6 @@
     <t>Start Date Calendar feature - On Add Camp, the Start Date calendar feature doesn't come up. End Date works fine. We have recreated this problem in both Firefox and Edge. Once the camp is added, and you go back in through the Edit link, the calendar pops up fine.  Maybe put 01/01/2018 in the field.  (not a show stopper but it's embarrassing)</t>
   </si>
   <si>
-    <t>Map Not showing correct address - When a camp is cloned and a new address is put in, if Google doesn’t recognise the new address it will display the entered address (text) but show the last address in the map.</t>
-  </si>
-  <si>
     <t>Special Needs, &amp;amp - When selecting the Special Needs of ADHD &amp; Similar, after selecting it, it says 'ADHD &amp;amp …'</t>
   </si>
   <si>
@@ -446,9 +430,6 @@
   </si>
   <si>
     <t>Editing location, the State didn't change back - I changed an address to one that is in Pennsylvania. When I changed it back to one here in Centerville, it did take the city and zip, but it didn't change the state back from PA to OH.</t>
-  </si>
-  <si>
-    <t>We want this to stay off for now; Is the register email back verifing or is it still off - this note is old, and I don't remember what it means, but may be important to check this out!</t>
   </si>
   <si>
     <t>What is this?</t>
@@ -487,13 +468,6 @@
   </si>
   <si>
     <t>Age and Grade - Have the default word on that control be -Select-</t>
-  </si>
-  <si>
-    <t>Age and Grade boolean logic - The boolean logic for age (alone) is AND … in other words, if they check 7 yr old, and also 9 yr old, the search would return camps that apply to BOTH 7 and 9 year olds.
-The same is true within Grade… if they select more than one grade, it is an AND. 2nd grade and 4th grade both included in the same camp.
-Between Age and Grade, the boolean logic is OR. So, if they choose 7 yr old on age, and 2nd grade on Grade, the search would return all camps for 7 year olds, OR camps for 2nd graders (all inclusive, every possible camp for those two conditions).
-The logic for multiple ages (AND), and the logic for multiple grades (AND) is applied separate from the logic for the two combined (OR).
-[NOTE: some camps only go by grade, and some only by age, and some specify both age and grade... those are all inclusive]</t>
   </si>
   <si>
     <t>Results side - right side - Display box (the white area) match up with the length of the left side box (criteria area)</t>
@@ -623,9 +597,6 @@
     <t>Done?</t>
   </si>
   <si>
-    <t>import large amout of data - like, thousands of camp from one organization (could be hundreds, up to many thousands)</t>
-  </si>
-  <si>
     <t>Fixed?</t>
   </si>
   <si>
@@ -726,6 +697,458 @@
   </si>
   <si>
     <t>Create a page that shows the organizations and all it's camps.</t>
+  </si>
+  <si>
+    <t>there is a dash following some days of the week (ie "Sat -"). Also make sure all combinations of days are covered.</t>
+  </si>
+  <si>
+    <t>Results list needs to actually have ALL results available to view. In other words, I think right now it returns the first 100, and never any more than that. Even if there were 500 matches, you can never go to a next page and see anything more. It used to allow you to do that. We would like that functionality restored. I believe it was originally removed due to performance concerns. We want to find a different way to deal with performance that doesn't take that functionality away.</t>
+  </si>
+  <si>
+    <t>Detail Page - FHO</t>
+  </si>
+  <si>
+    <t>Search criteria - FHO</t>
+  </si>
+  <si>
+    <t>Search criteria - AGE</t>
+  </si>
+  <si>
+    <t>x?</t>
+  </si>
+  <si>
+    <t>Tweak - ANNE</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Change Request ID</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>T006</t>
+  </si>
+  <si>
+    <t>T007</t>
+  </si>
+  <si>
+    <t>T008</t>
+  </si>
+  <si>
+    <t>PS001</t>
+  </si>
+  <si>
+    <t>PS002</t>
+  </si>
+  <si>
+    <t>PS003</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>T010</t>
+  </si>
+  <si>
+    <t>T011</t>
+  </si>
+  <si>
+    <t>T012</t>
+  </si>
+  <si>
+    <t>T013</t>
+  </si>
+  <si>
+    <t>T014</t>
+  </si>
+  <si>
+    <t>T015</t>
+  </si>
+  <si>
+    <t>T016</t>
+  </si>
+  <si>
+    <t>T017</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>T018</t>
+  </si>
+  <si>
+    <t>T019</t>
+  </si>
+  <si>
+    <t>T020</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>F004</t>
+  </si>
+  <si>
+    <t>F005</t>
+  </si>
+  <si>
+    <t>F006</t>
+  </si>
+  <si>
+    <t>F007</t>
+  </si>
+  <si>
+    <t>F008</t>
+  </si>
+  <si>
+    <t>F009</t>
+  </si>
+  <si>
+    <t>F010</t>
+  </si>
+  <si>
+    <t>F011</t>
+  </si>
+  <si>
+    <t>T021</t>
+  </si>
+  <si>
+    <t>T022</t>
+  </si>
+  <si>
+    <t>F012</t>
+  </si>
+  <si>
+    <t>F013</t>
+  </si>
+  <si>
+    <t>F015</t>
+  </si>
+  <si>
+    <t>F016</t>
+  </si>
+  <si>
+    <t>F017</t>
+  </si>
+  <si>
+    <t>F018</t>
+  </si>
+  <si>
+    <t>F019</t>
+  </si>
+  <si>
+    <t>T023</t>
+  </si>
+  <si>
+    <t>T024</t>
+  </si>
+  <si>
+    <t>T025</t>
+  </si>
+  <si>
+    <t>T026</t>
+  </si>
+  <si>
+    <t>T027</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>B011</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>B015</t>
+  </si>
+  <si>
+    <t>B016</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>T028</t>
+  </si>
+  <si>
+    <t>T029</t>
+  </si>
+  <si>
+    <t>T030</t>
+  </si>
+  <si>
+    <t>B019</t>
+  </si>
+  <si>
+    <t>F020</t>
+  </si>
+  <si>
+    <t>T031</t>
+  </si>
+  <si>
+    <t>T032</t>
+  </si>
+  <si>
+    <t>T033</t>
+  </si>
+  <si>
+    <t>T034</t>
+  </si>
+  <si>
+    <t>T035</t>
+  </si>
+  <si>
+    <t>T036</t>
+  </si>
+  <si>
+    <t>T037</t>
+  </si>
+  <si>
+    <t>T038</t>
+  </si>
+  <si>
+    <t>T039</t>
+  </si>
+  <si>
+    <t>T041</t>
+  </si>
+  <si>
+    <t>T042</t>
+  </si>
+  <si>
+    <t>T043</t>
+  </si>
+  <si>
+    <t>T044</t>
+  </si>
+  <si>
+    <t>B020</t>
+  </si>
+  <si>
+    <t>B021</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>F021</t>
+  </si>
+  <si>
+    <t>T045</t>
+  </si>
+  <si>
+    <t>T046</t>
+  </si>
+  <si>
+    <t>T047</t>
+  </si>
+  <si>
+    <t>T048</t>
+  </si>
+  <si>
+    <t>T049</t>
+  </si>
+  <si>
+    <t>T050</t>
+  </si>
+  <si>
+    <t>T051</t>
+  </si>
+  <si>
+    <t>T052</t>
+  </si>
+  <si>
+    <t>T053</t>
+  </si>
+  <si>
+    <t>T054</t>
+  </si>
+  <si>
+    <t>T055</t>
+  </si>
+  <si>
+    <t>F022</t>
+  </si>
+  <si>
+    <t>F023</t>
+  </si>
+  <si>
+    <t>F024</t>
+  </si>
+  <si>
+    <t>F025</t>
+  </si>
+  <si>
+    <t>F026</t>
+  </si>
+  <si>
+    <t>F027</t>
+  </si>
+  <si>
+    <t>F028</t>
+  </si>
+  <si>
+    <t>F029</t>
+  </si>
+  <si>
+    <t>"Advance Filters" link - this is old and just needs to be removed. No longer needed</t>
+  </si>
+  <si>
+    <t>both website and Mobile</t>
+  </si>
+  <si>
+    <t>Rearrange the search fields. These should be rearranged for both the computer desktop and mobile (responsive)</t>
+  </si>
+  <si>
+    <t>When searching from a zip or address, I believe it thinks the user is at lat/long of 0/0</t>
+  </si>
+  <si>
+    <t>When the date is past, please indicate that by making the date RED and BOLD. This would include the date on the results list, and all of the dates on the detail page. This would include those that say “Multiple Dates Available”… also in RED BOLD</t>
+  </si>
+  <si>
+    <t>On the detail page, the date ranges are removed as the dates pass; please put them back on the display page.  All camps should be shown from 1/1/2018 till now. In RED and BOLD</t>
+  </si>
+  <si>
+    <t>Dates should show full year "2018". (ex. 06/18/2018 - 06/22/2018)</t>
+  </si>
+  <si>
+    <t>B022</t>
+  </si>
+  <si>
+    <t>T056</t>
+  </si>
+  <si>
+    <t>F002 (MOCK UP)</t>
+  </si>
+  <si>
+    <t>F003 (MOCK UP)</t>
+  </si>
+  <si>
+    <t>T009 (MOCK UP)</t>
+  </si>
+  <si>
+    <t>Handshake between DMC (when they make the purchase), and the Camps Rock website. In other words, make a smooth transition to purchasing and actually getting the upgrades on the account.</t>
+  </si>
+  <si>
+    <t>F030</t>
+  </si>
+  <si>
+    <t>Can't publish a camp with a date in the past (from 2018, or any time prior to today's date)</t>
+  </si>
+  <si>
+    <t>Uploading photos and logos was not always working. We think it might have had to do with Apple products (laptops? Or maybe all Apple? Or maybe it was a browser issue). Not sure what was causing it, but definitely some people were having trouble uploading photos/logos</t>
+  </si>
+  <si>
+    <t>Parent login gives an object error</t>
+  </si>
+  <si>
+    <t>Need to come up with specs on sizes of images for upgraded pages… logo, favicon, and photo carousel - plug in</t>
+  </si>
+  <si>
+    <t>No Longer Needed (last year)</t>
+  </si>
+  <si>
+    <t>F031</t>
+  </si>
+  <si>
+    <t>D007</t>
+  </si>
+  <si>
+    <t>F032</t>
+  </si>
+  <si>
+    <t>can't recreate</t>
+  </si>
+  <si>
+    <t>no longer an issue</t>
+  </si>
+  <si>
+    <t>Camp type radio button - Change the camp type from drop down to radio buttons. Have them select "Full Day" , "Half Day", or "Overnight"… radio button so that all three are visible. This is required, and there is no default to start. As it currently is, people are blowing by this control and they are leaving it as the default.</t>
+  </si>
+  <si>
+    <t>check box on Registration. Have users forced to check a confirmation that they agree to  terms &amp; conditions. Have a link below this that can bring up the T&amp;C for them to review</t>
+  </si>
+  <si>
+    <t>Don’t do</t>
+  </si>
+  <si>
+    <t>Change label based on where they are in Camps Rock (Google/SEO?)</t>
+  </si>
+  <si>
+    <t>change
+complete</t>
+  </si>
+  <si>
+    <t>change
+tested</t>
+  </si>
+  <si>
+    <t>Camp Description, label suggestions… suggested sections which will be put into the description if they've entered something. For example, Company overview, philosophy, space/building, leader bios, etc.</t>
+  </si>
+  <si>
+    <t>Map Not showing correct address - When a camp is cloned and a new address is put in, if Google doesn’t recognize the new address it will display the entered address (text) but show the last address in the map.</t>
+  </si>
+  <si>
+    <t>import large amount of data - like, thousands of camp from one organization (could be hundreds, up to many thousands)</t>
+  </si>
+  <si>
+    <t>We want this to stay off for now; Is the register email back verifying or is it still off - this note is old, and I don't remember what it means, but may be important to check this out!</t>
+  </si>
+  <si>
+    <t>Filters (unpublished, published w/problems, years (ie show all 2017), Number of camps listed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report: who is registered, who has camp but didn't publish, who published, etc. </t>
   </si>
   <si>
     <t>Full, Half, and Overnight controls - This refers to how Vijay originally coded this. All of the description/functionality below has currently been turned off/hidden from view.
@@ -733,463 +1156,57 @@
 Change the colors to be yellow in either direction (no brown/orange, just all yellow regardless of On or Off)
 Change 'Off' text to be black, just like the 'On' side.
 Change default to all say 'On'
-When someone comes into search from scratch, the functionality always starts by searching and returning everything in the database. Only filter when they turn someting Off.</t>
-  </si>
-  <si>
-    <t>there is a dash following some days of the week (ie "Sat -"). Also make sure all combinations of days are covered.</t>
-  </si>
-  <si>
-    <t>Results list needs to actually have ALL results available to view. In other words, I think right now it returns the first 100, and never any more than that. Even if there were 500 matches, you can never go to a next page and see anything more. It used to allow you to do that. We would like that functionality restored. I believe it was originally removed due to performance concerns. We want to find a different way to deal with performance that doesn't take that functionality away.</t>
-  </si>
-  <si>
-    <t>Detail Page - FHO</t>
-  </si>
-  <si>
-    <t>Search criteria - FHO</t>
-  </si>
-  <si>
-    <t>Search criteria - AGE</t>
-  </si>
-  <si>
-    <t>x?</t>
-  </si>
-  <si>
-    <t>Tweak - ANNE</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Change Request ID</t>
-  </si>
-  <si>
-    <t>T001</t>
-  </si>
-  <si>
-    <t>B002</t>
-  </si>
-  <si>
-    <t>B001</t>
-  </si>
-  <si>
-    <t>B003</t>
-  </si>
-  <si>
-    <t>B004</t>
-  </si>
-  <si>
-    <t>B005</t>
-  </si>
-  <si>
-    <t>B006</t>
-  </si>
-  <si>
-    <t>B007</t>
-  </si>
-  <si>
-    <t>T002</t>
-  </si>
-  <si>
-    <t>T003</t>
-  </si>
-  <si>
-    <t>T004</t>
-  </si>
-  <si>
-    <t>T005</t>
-  </si>
-  <si>
-    <t>T006</t>
-  </si>
-  <si>
-    <t>T007</t>
-  </si>
-  <si>
-    <t>T008</t>
-  </si>
-  <si>
-    <t>PS001</t>
-  </si>
-  <si>
-    <t>PS002</t>
-  </si>
-  <si>
-    <t>PS003</t>
-  </si>
-  <si>
-    <t>F001</t>
-  </si>
-  <si>
-    <t>T010</t>
-  </si>
-  <si>
-    <t>T011</t>
-  </si>
-  <si>
-    <t>T012</t>
-  </si>
-  <si>
-    <t>T013</t>
-  </si>
-  <si>
-    <t>T014</t>
-  </si>
-  <si>
-    <t>T015</t>
-  </si>
-  <si>
-    <t>T016</t>
-  </si>
-  <si>
-    <t>T017</t>
-  </si>
-  <si>
-    <t>B008</t>
-  </si>
-  <si>
-    <t>D001</t>
-  </si>
-  <si>
-    <t>D003</t>
-  </si>
-  <si>
-    <t>T018</t>
-  </si>
-  <si>
-    <t>T019</t>
-  </si>
-  <si>
-    <t>T020</t>
-  </si>
-  <si>
-    <t>D004</t>
-  </si>
-  <si>
-    <t>F004</t>
-  </si>
-  <si>
-    <t>F005</t>
-  </si>
-  <si>
-    <t>F006</t>
-  </si>
-  <si>
-    <t>F007</t>
-  </si>
-  <si>
-    <t>F008</t>
-  </si>
-  <si>
-    <t>F009</t>
-  </si>
-  <si>
-    <t>F010</t>
-  </si>
-  <si>
-    <t>F011</t>
-  </si>
-  <si>
-    <t>T021</t>
-  </si>
-  <si>
-    <t>T022</t>
-  </si>
-  <si>
-    <t>F012</t>
-  </si>
-  <si>
-    <t>F013</t>
-  </si>
-  <si>
-    <t>F015</t>
-  </si>
-  <si>
-    <t>F016</t>
-  </si>
-  <si>
-    <t>F017</t>
-  </si>
-  <si>
-    <t>F018</t>
-  </si>
-  <si>
-    <t>F019</t>
-  </si>
-  <si>
-    <t>T023</t>
-  </si>
-  <si>
-    <t>T024</t>
-  </si>
-  <si>
-    <t>T025</t>
-  </si>
-  <si>
-    <t>T026</t>
-  </si>
-  <si>
-    <t>T027</t>
-  </si>
-  <si>
-    <t>B009</t>
-  </si>
-  <si>
-    <t>B010</t>
-  </si>
-  <si>
-    <t>B011</t>
-  </si>
-  <si>
-    <t>B012</t>
-  </si>
-  <si>
-    <t>B013</t>
-  </si>
-  <si>
-    <t>B015</t>
-  </si>
-  <si>
-    <t>B016</t>
-  </si>
-  <si>
-    <t>D005</t>
-  </si>
-  <si>
-    <t>T028</t>
-  </si>
-  <si>
-    <t>T029</t>
-  </si>
-  <si>
-    <t>T030</t>
-  </si>
-  <si>
-    <t>B019</t>
-  </si>
-  <si>
-    <t>F020</t>
-  </si>
-  <si>
-    <t>T031</t>
-  </si>
-  <si>
-    <t>T032</t>
-  </si>
-  <si>
-    <t>T033</t>
-  </si>
-  <si>
-    <t>T034</t>
-  </si>
-  <si>
-    <t>T035</t>
-  </si>
-  <si>
-    <t>T036</t>
-  </si>
-  <si>
-    <t>T037</t>
-  </si>
-  <si>
-    <t>T038</t>
-  </si>
-  <si>
-    <t>T039</t>
-  </si>
-  <si>
-    <t>T041</t>
-  </si>
-  <si>
-    <t>T042</t>
-  </si>
-  <si>
-    <t>T043</t>
-  </si>
-  <si>
-    <t>T044</t>
-  </si>
-  <si>
-    <t>B020</t>
-  </si>
-  <si>
-    <t>B021</t>
-  </si>
-  <si>
-    <t>D006</t>
-  </si>
-  <si>
-    <t>F021</t>
-  </si>
-  <si>
-    <t>T045</t>
-  </si>
-  <si>
-    <t>T046</t>
-  </si>
-  <si>
-    <t>T047</t>
-  </si>
-  <si>
-    <t>T048</t>
-  </si>
-  <si>
-    <t>T049</t>
-  </si>
-  <si>
-    <t>T050</t>
-  </si>
-  <si>
-    <t>T051</t>
-  </si>
-  <si>
-    <t>T052</t>
-  </si>
-  <si>
-    <t>T053</t>
-  </si>
-  <si>
-    <t>T054</t>
-  </si>
-  <si>
-    <t>T055</t>
-  </si>
-  <si>
-    <t>F022</t>
-  </si>
-  <si>
-    <t>F023</t>
-  </si>
-  <si>
-    <t>F024</t>
-  </si>
-  <si>
-    <t>F025</t>
-  </si>
-  <si>
-    <t>F026</t>
-  </si>
-  <si>
-    <t>F027</t>
-  </si>
-  <si>
-    <t>F028</t>
-  </si>
-  <si>
-    <t>F029</t>
-  </si>
-  <si>
-    <t>"Advance Filters" link - this is old and just needs to be removed. No longer needed</t>
-  </si>
-  <si>
-    <t>both website and Mobile</t>
-  </si>
-  <si>
-    <t>Rearrange the search fields. These should be rearranged for both the computer desktop and mobile (responsive)</t>
-  </si>
-  <si>
-    <t>When searching from a zip or address, I believe it thinks the user is at lat/long of 0/0</t>
-  </si>
-  <si>
-    <t>When the date is past, please indicate that by making the date RED and BOLD. This would include the date on the results list, and all of the dates on the detail page. This would include those that say “Multiple Dates Available”… also in RED BOLD</t>
-  </si>
-  <si>
-    <t>On the detail page, the date ranges are removed as the dates pass; please put them back on the display page.  All camps should be shown from 1/1/2018 till now. In RED and BOLD</t>
-  </si>
-  <si>
-    <t>Dates should show full year "2018". (ex. 06/18/2018 - 06/22/2018)</t>
-  </si>
-  <si>
-    <t>B022</t>
-  </si>
-  <si>
-    <t>T056</t>
-  </si>
-  <si>
-    <t>F002 (MOCK UP)</t>
-  </si>
-  <si>
-    <t>F003 (MOCK UP)</t>
-  </si>
-  <si>
-    <t>T009 (MOCK UP)</t>
-  </si>
-  <si>
-    <t>Handshake between DMC (when they make the purchase), and the Camps Rock website. In other words, make a smooth transition to purchasing and actually getting the upgrades on the account.</t>
-  </si>
-  <si>
-    <t>F030</t>
-  </si>
-  <si>
-    <t>Can't publish a camp with a date in the past (from 2018, or any time prior to today's date)</t>
-  </si>
-  <si>
-    <t>Uploading photos and logos was not always working. We think it might have had to do with Apple products (laptops? Or maybe all Apple? Or maybe it was a browser issue). Not sure what was causing it, but definitely some people were having trouble uploading photos/logos</t>
-  </si>
-  <si>
-    <t>Parent login gives an object error</t>
-  </si>
-  <si>
-    <t>Need to come up with specs on sizes of images for upgraded pages… logo, favicon, and photo carousel - plug in</t>
-  </si>
-  <si>
-    <t>No Longer Needed (last year)</t>
-  </si>
-  <si>
-    <t>F031</t>
-  </si>
-  <si>
-    <t>D007</t>
-  </si>
-  <si>
-    <t>F032</t>
-  </si>
-  <si>
-    <t>can't recreate</t>
-  </si>
-  <si>
-    <t>no longer an issue</t>
-  </si>
-  <si>
-    <t>Camp type radio button - Change the camp type from drop down to radio buttons. Have them select "Full Day" , "Half Day", or "Overnight"… radio button so that all three are visible. This is required, and there is no default to start. As it currently is, people are blowing by this control and they are leaving it as the default.</t>
-  </si>
-  <si>
-    <t>check box on Registration. Have users forced to check a confirmation that they agree to  terms &amp; conditions. Have a link below this that can bring up the T&amp;C for them to review</t>
-  </si>
-  <si>
-    <t>Don’t do</t>
-  </si>
-  <si>
-    <t>Change label based on where they are in Camps Rock (Google/SEO?)</t>
-  </si>
-  <si>
-    <t>Label "Summer Camps Kids 2019" (right now it says 2018)</t>
-  </si>
-  <si>
-    <t>change
+When someone comes into search from scratch, the functionality always starts by searching and returning everything in the database. Only filter when they turn something Off.</t>
+  </si>
+  <si>
+    <t>Use another service to login' … Facebook, google, etc. Can those be more standard? I haven't tried them… do they work? Or, worst case, just remove those altogether.</t>
+  </si>
+  <si>
+    <t>Put a Like Us button for Facebook, twitter, etc. The ones we have there just go to our page. Wondering if we can actually have it do the 'Like'. That may not be possible, I don't know how these things work. :)</t>
+  </si>
+  <si>
+    <t>possibly list each camp orgs Twitter, Facebook, etc from the camp view.  Like Brilliant Directories does.</t>
+  </si>
+  <si>
+    <t>Age and Grade Boolean logic - The Boolean logic for age (alone) is AND … in other words, if they check 7 yr old, and also 9 yr old, the search would return camps that apply to BOTH 7 and 9 year olds.
+The same is true within Grade… if they select more than one grade, it is an AND. 2nd grade and 4th grade both included in the same camp.
+Between Age and Grade, the Boolean logic is OR. So, if they choose 7 yr old on age, and 2nd grade on Grade, the search would return all camps for 7 year olds, OR camps for 2nd graders (all inclusive, every possible camp for those two conditions).
+The logic for multiple ages (AND), and the logic for multiple grades (AND) is applied separate from the logic for the two combined (OR).
+[NOTE: some camps only go by grade, and some only by age, and some specify both age and grade... those are all inclusive]</t>
+  </si>
+  <si>
+    <t>Images, Maybe display images more like Facebook does, and when you click it takes you to a display of all (more like a folder)
+LinkedIn (1400 x 425)
+FaceBook (1600 x 900)
+Twitter (1500 x 500)</t>
+  </si>
+  <si>
+    <t>Label "Summer Camp Directory - 2019" on all tabs</t>
+  </si>
+  <si>
+    <t>Browser Tab</t>
+  </si>
+  <si>
+    <t>All Pages</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>request
 sent</t>
   </si>
   <si>
-    <t>change
-complete</t>
-  </si>
-  <si>
-    <t>change
-tested</t>
-  </si>
-  <si>
-    <t>change
-approved</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>deployed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1351,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1482,22 +1499,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1810,11 +1824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1839,7 @@
     <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="79" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="11.85546875" style="46" customWidth="1"/>
+    <col min="7" max="10" width="14" style="46" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1837,28 +1851,28 @@
         <v>15</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1866,22 +1880,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>335</v>
+        <v>190</v>
+      </c>
+      <c r="G2" s="45">
+        <v>43428</v>
       </c>
       <c r="H2" s="46"/>
       <c r="I2" s="46"/>
@@ -1896,22 +1910,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>335</v>
+        <v>297</v>
+      </c>
+      <c r="G3" s="46">
+        <v>43428</v>
       </c>
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
@@ -1929,19 +1943,19 @@
         <v>13</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>335</v>
+        <v>193</v>
+      </c>
+      <c r="G4" s="46">
+        <v>43428</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
@@ -1959,19 +1973,19 @@
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>335</v>
+        <v>194</v>
+      </c>
+      <c r="G5" s="46">
+        <v>43428</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
@@ -1989,19 +2003,19 @@
         <v>13</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>335</v>
+        <v>195</v>
+      </c>
+      <c r="G6" s="46">
+        <v>43428</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
@@ -2019,19 +2033,19 @@
         <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>335</v>
+        <v>196</v>
+      </c>
+      <c r="G7" s="46">
+        <v>43428</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
@@ -2049,19 +2063,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>335</v>
+        <v>298</v>
+      </c>
+      <c r="G8" s="45">
+        <v>43428</v>
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
@@ -2079,16 +2093,16 @@
         <v>14</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
@@ -2107,16 +2121,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
@@ -2135,16 +2149,16 @@
         <v>14</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
@@ -2163,16 +2177,16 @@
         <v>13</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
@@ -2191,19 +2205,19 @@
         <v>13</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>335</v>
+        <v>301</v>
+      </c>
+      <c r="G13" s="46">
+        <v>43476</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
@@ -2221,16 +2235,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
@@ -2246,22 +2260,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>335</v>
+        <v>187</v>
+      </c>
+      <c r="G15" s="48">
+        <v>43481</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
@@ -2276,22 +2290,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>335</v>
+        <v>212</v>
+      </c>
+      <c r="G16" s="45">
+        <v>43476</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
@@ -2306,21 +2320,21 @@
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="47"/>
+        <v>241</v>
+      </c>
+      <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
@@ -2334,21 +2348,21 @@
         <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="G18" s="47"/>
+        <v>242</v>
+      </c>
+      <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
@@ -2362,21 +2376,21 @@
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="G19" s="47"/>
+        <v>243</v>
+      </c>
+      <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
@@ -2390,21 +2404,21 @@
         <v>6</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="G20" s="47"/>
+        <v>244</v>
+      </c>
+      <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
@@ -2418,19 +2432,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="46"/>
@@ -2446,22 +2460,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>324</v>
+        <v>246</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>312</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
@@ -2476,22 +2490,22 @@
         <v>7</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>335</v>
+        <v>247</v>
+      </c>
+      <c r="G23" s="46">
+        <v>43481</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
@@ -2506,19 +2520,19 @@
         <v>2</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="46"/>
@@ -2534,46 +2548,46 @@
         <v>7</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
+        <v>248</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="14" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>335</v>
+        <v>310</v>
+      </c>
+      <c r="G26" s="46">
+        <v>43481</v>
       </c>
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
@@ -2591,19 +2605,19 @@
         <v>13</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>335</v>
+        <v>215</v>
+      </c>
+      <c r="G27" s="48">
+        <v>43481</v>
       </c>
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
@@ -2621,19 +2635,19 @@
         <v>13</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>335</v>
+        <v>216</v>
+      </c>
+      <c r="G28" s="48">
+        <v>43481</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2644,16 +2658,16 @@
         <v>13</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G29" s="45"/>
     </row>
@@ -2665,19 +2679,19 @@
         <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="G30" s="47" t="s">
-        <v>335</v>
+        <v>249</v>
+      </c>
+      <c r="G30" s="48">
+        <v>43481</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2688,19 +2702,19 @@
         <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>335</v>
+        <v>250</v>
+      </c>
+      <c r="G31" s="46">
+        <v>43481</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2711,19 +2725,19 @@
         <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>335</v>
+        <v>251</v>
+      </c>
+      <c r="G32" s="48">
+        <v>43481</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -2734,19 +2748,19 @@
         <v>14</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>335</v>
+        <v>229</v>
+      </c>
+      <c r="G33" s="48">
+        <v>43481</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -2757,19 +2771,19 @@
         <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>335</v>
+        <v>264</v>
+      </c>
+      <c r="G34" s="48">
+        <v>43481</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -2777,24 +2791,24 @@
         <v>7</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
+        <v>269</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2808,16 +2822,16 @@
         <v>14</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2828,19 +2842,19 @@
         <v>13</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>335</v>
+        <v>205</v>
+      </c>
+      <c r="G37" s="46">
+        <v>43476</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -2851,19 +2865,19 @@
         <v>13</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>335</v>
+        <v>207</v>
+      </c>
+      <c r="G38" s="46">
+        <v>43476</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -2871,19 +2885,19 @@
         <v>1</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2891,19 +2905,19 @@
         <v>1</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -2911,19 +2925,19 @@
         <v>1</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2931,19 +2945,19 @@
         <v>1</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2951,19 +2965,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2971,82 +2985,79 @@
         <v>7</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="G44" s="47"/>
+        <v>252</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>7</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" s="47"/>
+        <v>267</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>7</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="G46" s="47"/>
+        <v>268</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -3054,19 +3065,19 @@
         <v>3</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -3077,18 +3088,17 @@
         <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>116</v>
+        <v>323</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="47"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="50" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
@@ -3098,122 +3108,121 @@
         <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" s="47"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="51" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
+        <v>141</v>
+      </c>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -3221,86 +3230,83 @@
     </row>
     <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G57" s="47"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="58" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="47"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G59" s="47"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
@@ -3310,18 +3316,17 @@
         <v>14</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G60" s="47"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
@@ -3331,18 +3336,17 @@
         <v>14</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G61" s="47"/>
+        <v>220</v>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
@@ -3352,16 +3356,16 @@
         <v>14</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -3372,18 +3376,17 @@
         <v>14</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="G63" s="47"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="64" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
@@ -3393,18 +3396,17 @@
         <v>14</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G64" s="47"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="65" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
@@ -3414,16 +3416,16 @@
         <v>14</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -3434,16 +3436,16 @@
         <v>14</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -3454,16 +3456,16 @@
         <v>14</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G67" s="45"/>
     </row>
@@ -3475,21 +3477,21 @@
         <v>14</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
+        <v>230</v>
+      </c>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -3503,18 +3505,17 @@
         <v>14</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="G69" s="47"/>
+        <v>231</v>
+      </c>
     </row>
     <row r="70" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
@@ -3524,16 +3525,16 @@
         <v>14</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -3544,21 +3545,21 @@
         <v>14</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
+        <v>233</v>
+      </c>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -3572,21 +3573,21 @@
         <v>14</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
+        <v>234</v>
+      </c>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -3600,18 +3601,17 @@
         <v>14</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="G73" s="47"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="74" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
@@ -3621,18 +3621,17 @@
         <v>14</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="G74" s="47"/>
+        <v>253</v>
+      </c>
     </row>
     <row r="75" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="31">
@@ -3642,59 +3641,59 @@
         <v>14</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
+        <v>283</v>
+      </c>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -3702,27 +3701,27 @@
     </row>
     <row r="78" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
+        <v>284</v>
+      </c>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -3730,27 +3729,27 @@
     </row>
     <row r="79" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
+        <v>285</v>
+      </c>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -3758,47 +3757,47 @@
     </row>
     <row r="80" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="48"/>
+        <v>287</v>
+      </c>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -3806,82 +3805,82 @@
     </row>
     <row r="82" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -3889,84 +3888,80 @@
         <v>7</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G86" s="47"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="87" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>7</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G87" s="47"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="88" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
         <v>7</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" s="47"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="89" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>7</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G89" s="47"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="90" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A90" s="29">
@@ -3976,84 +3971,81 @@
         <v>13</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G90" s="47"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="91" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G91" s="47"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="92" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G92" s="47"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="93" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="34" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
+        <v>142</v>
+      </c>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -4061,27 +4053,27 @@
     </row>
     <row r="94" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A94" s="34" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
+        <v>142</v>
+      </c>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -4089,69 +4081,67 @@
     </row>
     <row r="95" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G95" s="47"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="96" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G96" s="47"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="97" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="34" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G97" s="48"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="48"/>
+        <v>142</v>
+      </c>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -4162,19 +4152,19 @@
         <v>2</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4185,21 +4175,21 @@
         <v>12</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G99" s="48"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="48"/>
+        <v>200</v>
+      </c>
+      <c r="G99" s="47"/>
+      <c r="H99" s="47"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="47"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -4210,19 +4200,19 @@
         <v>1</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4230,19 +4220,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4253,18 +4243,17 @@
         <v>13</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G102" s="47"/>
+        <v>197</v>
+      </c>
     </row>
     <row r="103" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
@@ -4274,18 +4263,17 @@
         <v>13</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="G103" s="47"/>
+        <v>198</v>
+      </c>
     </row>
     <row r="104" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="18">
@@ -4295,18 +4283,17 @@
         <v>13</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G104" s="47"/>
+        <v>199</v>
+      </c>
     </row>
     <row r="105" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
@@ -4316,21 +4303,21 @@
         <v>13</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="48"/>
+        <v>206</v>
+      </c>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="47"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
@@ -4344,16 +4331,16 @@
         <v>13</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4364,16 +4351,16 @@
         <v>13</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4381,19 +4368,19 @@
         <v>1.2</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -4404,18 +4391,17 @@
         <v>13</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="G109" s="47"/>
+        <v>227</v>
+      </c>
     </row>
     <row r="110" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
@@ -4425,21 +4411,21 @@
         <v>13</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
+        <v>228</v>
+      </c>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="47"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -4453,18 +4439,17 @@
         <v>13</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G111" s="47"/>
+        <v>236</v>
+      </c>
     </row>
     <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
@@ -4474,18 +4459,17 @@
         <v>13</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="G112" s="47"/>
+        <v>237</v>
+      </c>
     </row>
     <row r="113" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
@@ -4495,18 +4479,17 @@
         <v>13</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G113" s="47"/>
+        <v>238</v>
+      </c>
     </row>
     <row r="114" spans="1:14" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
@@ -4516,18 +4499,17 @@
         <v>13</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>129</v>
+        <v>330</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G114" s="47"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="115" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
@@ -4537,18 +4519,17 @@
         <v>13</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="G115" s="47"/>
+        <v>240</v>
+      </c>
     </row>
     <row r="116" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="30">
@@ -4558,21 +4539,21 @@
         <v>13</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="G116" s="48"/>
-      <c r="H116" s="48"/>
-      <c r="I116" s="48"/>
-      <c r="J116" s="48"/>
+        <v>254</v>
+      </c>
+      <c r="G116" s="47"/>
+      <c r="H116" s="47"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="47"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -4586,16 +4567,16 @@
         <v>13</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -4606,16 +4587,16 @@
         <v>13</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4626,18 +4607,17 @@
         <v>13</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="G119" s="47"/>
+        <v>257</v>
+      </c>
     </row>
     <row r="120" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A120" s="29">
@@ -4647,18 +4627,17 @@
         <v>13</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="G120" s="47"/>
+        <v>258</v>
+      </c>
     </row>
     <row r="121" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
@@ -4668,18 +4647,17 @@
         <v>13</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="G121" s="47"/>
+        <v>259</v>
+      </c>
     </row>
     <row r="122" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="30">
@@ -4689,16 +4667,16 @@
         <v>13</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -4709,18 +4687,17 @@
         <v>13</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G123" s="47"/>
+        <v>261</v>
+      </c>
     </row>
     <row r="124" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="30">
@@ -4730,21 +4707,21 @@
         <v>13</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
+        <v>262</v>
+      </c>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="47"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
@@ -4758,18 +4735,17 @@
         <v>13</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D125" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E125" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="F125" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="G125" s="47"/>
+        <v>263</v>
+      </c>
     </row>
     <row r="126" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A126" s="29">
@@ -4779,18 +4755,17 @@
         <v>13</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="G126" s="47"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="127" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A127" s="29">
@@ -4800,18 +4775,17 @@
         <v>13</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="G127" s="47"/>
+        <v>266</v>
+      </c>
     </row>
     <row r="128" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A128" s="31">
@@ -4821,21 +4795,21 @@
         <v>13</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="G128" s="48"/>
-      <c r="H128" s="48"/>
-      <c r="I128" s="48"/>
-      <c r="J128" s="48"/>
+        <v>271</v>
+      </c>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="47"/>
+      <c r="J128" s="47"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -4849,16 +4823,16 @@
         <v>13</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4869,16 +4843,16 @@
         <v>13</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -4889,16 +4863,16 @@
         <v>13</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4909,18 +4883,17 @@
         <v>13</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G132" s="47"/>
+        <v>275</v>
+      </c>
     </row>
     <row r="133" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="32">
@@ -4930,18 +4903,17 @@
         <v>13</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="G133" s="47"/>
+        <v>276</v>
+      </c>
     </row>
     <row r="134" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="32">
@@ -4951,18 +4923,17 @@
         <v>13</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="G134" s="47"/>
+        <v>277</v>
+      </c>
     </row>
     <row r="135" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A135" s="32">
@@ -4972,18 +4943,17 @@
         <v>13</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G135" s="47"/>
+        <v>278</v>
+      </c>
     </row>
     <row r="136" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A136" s="32">
@@ -4993,18 +4963,17 @@
         <v>13</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="G136" s="47"/>
+        <v>279</v>
+      </c>
     </row>
     <row r="137" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A137" s="32">
@@ -5014,18 +4983,17 @@
         <v>13</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="G137" s="47"/>
+        <v>280</v>
+      </c>
     </row>
     <row r="138" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A138" s="32">
@@ -5035,38 +5003,62 @@
         <v>13</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="G138" s="47"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E140" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E141" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B149" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>138</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="32">
+        <v>8</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G139" s="46">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="32">
+        <v>8</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="14"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E142" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5097,19 +5089,19 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/2018-19  enhancement list.xlsx
+++ b/2018-19  enhancement list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Potter\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D13750F-8986-43A9-872A-F9D244941438}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBA150-365C-4032-918B-7237C9D0EB3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="300" windowWidth="26265" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018-19 change requests" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="343">
   <si>
     <t>Generally address the slowness of the site</t>
   </si>
@@ -1129,10 +1129,6 @@
 complete</t>
   </si>
   <si>
-    <t>change
-tested</t>
-  </si>
-  <si>
     <t>Camp Description, label suggestions… suggested sections which will be put into the description if they've entered something. For example, Company overview, philosophy, space/building, leader bios, etc.</t>
   </si>
   <si>
@@ -1198,6 +1194,25 @@
   </si>
   <si>
     <t>deployed</t>
+  </si>
+  <si>
+    <t>T057</t>
+  </si>
+  <si>
+    <t>Registration Page</t>
+  </si>
+  <si>
+    <t>T058</t>
+  </si>
+  <si>
+    <t>Send a confirmation email on registration. Force a two step confirmation. Director side</t>
+  </si>
+  <si>
+    <t>Send a confirmation email on registration. Force a two step confirmation. Parents side</t>
+  </si>
+  <si>
+    <t>testing
+complete</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1221,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="m/d;@"/>
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1499,19 +1514,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1824,11 +1839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,16 +1878,16 @@
         <v>184</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1" s="44" t="s">
         <v>318</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1897,128 +1912,148 @@
       <c r="G2" s="45">
         <v>43428</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="H2" s="46">
+        <v>43506</v>
+      </c>
+      <c r="I2" s="46">
+        <v>43507</v>
+      </c>
       <c r="J2" s="46"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="40">
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="G3" s="46">
         <v>43428</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="H3" s="46">
+        <v>43506</v>
+      </c>
+      <c r="I3" s="46">
+        <v>43507</v>
+      </c>
       <c r="J3" s="46"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>294</v>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="46">
-        <v>43428</v>
-      </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+        <v>215</v>
+      </c>
+      <c r="G4" s="48">
+        <v>43481</v>
+      </c>
+      <c r="H4" s="46">
+        <v>43506</v>
+      </c>
+      <c r="I4" s="46">
+        <v>43507</v>
+      </c>
       <c r="J4" s="46"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
-        <v>1</v>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>295</v>
+        <v>52</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="46">
-        <v>43428</v>
-      </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+        <v>216</v>
+      </c>
+      <c r="G5" s="48">
+        <v>43481</v>
+      </c>
+      <c r="H5" s="46">
+        <v>43506</v>
+      </c>
+      <c r="I5" s="46">
+        <v>43507</v>
+      </c>
       <c r="J5" s="46"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>40</v>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="46">
-        <v>43428</v>
-      </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+        <v>249</v>
+      </c>
+      <c r="G6" s="48">
+        <v>43481</v>
+      </c>
+      <c r="H6" s="46">
+        <v>43506</v>
+      </c>
+      <c r="I6" s="46">
+        <v>43507</v>
+      </c>
       <c r="J6" s="46"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2026,29 +2061,33 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>40</v>
+      <c r="A7" s="29">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="46">
-        <v>43428</v>
-      </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+        <v>251</v>
+      </c>
+      <c r="G7" s="48">
+        <v>43481</v>
+      </c>
+      <c r="H7" s="46">
+        <v>43506</v>
+      </c>
+      <c r="I7" s="46">
+        <v>43507</v>
+      </c>
       <c r="J7" s="46"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2060,21 +2099,21 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>291</v>
+        <v>53</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="G8" s="45">
+        <v>297</v>
+      </c>
+      <c r="G8" s="46">
         <v>43428</v>
       </c>
       <c r="H8" s="46"/>
@@ -2085,83 +2124,99 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="46">
+        <v>43428</v>
+      </c>
+      <c r="H9" s="46">
+        <v>43506</v>
+      </c>
+      <c r="I9" s="46">
+        <v>43507</v>
+      </c>
       <c r="J9" s="46"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>1.1000000000000001</v>
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+        <v>93</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="46">
+        <v>43428</v>
+      </c>
+      <c r="H10" s="46">
+        <v>43506</v>
+      </c>
+      <c r="I10" s="46">
+        <v>43507</v>
+      </c>
       <c r="J10" s="46"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>1.1000000000000001</v>
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+        <v>296</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="46">
+        <v>43428</v>
+      </c>
+      <c r="H11" s="46">
+        <v>43506</v>
+      </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="1"/>
@@ -2169,27 +2224,31 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>48</v>
+        <v>291</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+        <v>292</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="45">
+        <v>43428</v>
+      </c>
+      <c r="H12" s="46">
+        <v>43506</v>
+      </c>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
       <c r="K12" s="1"/>
@@ -2216,7 +2275,7 @@
       <c r="F13" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>43476</v>
       </c>
       <c r="H13" s="46"/>
@@ -2227,26 +2286,28 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>2</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" s="45"/>
+        <v>143</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="45">
+        <v>43476</v>
+      </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
@@ -2255,27 +2316,27 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>1</v>
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>1.1000000000000001</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15" s="48">
-        <v>43481</v>
+        <v>205</v>
+      </c>
+      <c r="G15" s="45">
+        <v>43476</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
@@ -2285,24 +2346,24 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <v>2</v>
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>1.1000000000000001</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G16" s="45">
         <v>43476</v>
@@ -2315,26 +2376,28 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
+      <c r="C17" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="G17" s="46"/>
+        <v>139</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="45">
+        <v>43481</v>
+      </c>
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
@@ -2343,9 +2406,9 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
-        <v>6</v>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>68</v>
@@ -2354,15 +2417,17 @@
         <v>39</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="G18" s="46"/>
+        <v>106</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="45">
+        <v>43481</v>
+      </c>
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
@@ -2371,26 +2436,26 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>6</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="9" t="s">
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="G19" s="46"/>
+        <v>304</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="45">
+        <v>43481</v>
+      </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
@@ -2399,26 +2464,28 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
-        <v>6</v>
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="46"/>
+        <v>101</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="45">
+        <v>43481</v>
+      </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
@@ -2427,55 +2494,61 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>39</v>
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+        <v>95</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="45">
+        <v>43481</v>
+      </c>
+      <c r="H21" s="46">
+        <v>43506</v>
+      </c>
+      <c r="I21" s="46">
+        <v>43507</v>
+      </c>
       <c r="J21" s="46"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>312</v>
+        <v>136</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="45">
+        <v>43481</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
@@ -2485,27 +2558,27 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
-        <v>7</v>
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>68</v>
+        <v>334</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" s="46">
-        <v>43481</v>
+        <v>331</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="45">
+        <v>43493</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
@@ -2515,26 +2588,28 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>2</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="14" t="s">
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>7</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="45"/>
+        <v>104</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>312</v>
+      </c>
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
@@ -2569,26 +2644,26 @@
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
     </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+    <row r="26" spans="1:14" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="B26" s="14" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="G26" s="46">
-        <v>43481</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
@@ -2597,28 +2672,26 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <v>2</v>
+    <row r="27" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>1.1000000000000001</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="G27" s="48">
-        <v>43481</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
@@ -2628,279 +2701,258 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>1</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
         <v>2</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G28" s="48">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
-        <v>2</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
-        <v>7</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>39</v>
+      <c r="B30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="G30" s="48">
-        <v>43481</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
-        <v>7</v>
+      <c r="A31" s="28">
+        <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="G31" s="46">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
-        <v>7</v>
+        <v>107</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>6</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="G32" s="48">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>6</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>2</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>2</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>2</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" s="45"/>
+    </row>
+    <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>7</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="G33" s="48">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
-        <v>7</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="G34" s="48">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
-        <v>7</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="C39" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F39" s="42" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" s="46">
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" s="46">
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
-        <v>1</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>1</v>
       </c>
@@ -2911,16 +2963,16 @@
         <v>16</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>1</v>
       </c>
@@ -2928,19 +2980,19 @@
         <v>68</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>1</v>
       </c>
@@ -2951,13 +3003,13 @@
         <v>40</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -2971,33 +3023,33 @@
         <v>40</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>1</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F44" s="14" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
-        <v>7</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -3008,19 +3060,19 @@
         <v>68</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>7</v>
       </c>
@@ -3031,116 +3083,116 @@
         <v>131</v>
       </c>
       <c r="D46" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>7</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F47" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+    <row r="48" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
         <v>183</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
-        <v>3</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>146</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>3</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>3</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
-        <v>8</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="E50" s="9" t="s">
-        <v>103</v>
+        <v>322</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>39</v>
+    <row r="51" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>8</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>181</v>
       </c>
@@ -3154,33 +3206,33 @@
         <v>173</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+    <row r="53" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>149</v>
+      <c r="B53" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
         <v>181</v>
       </c>
@@ -3194,7 +3246,7 @@
         <v>149</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>141</v>
@@ -3211,24 +3263,16 @@
         <v>40</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
         <v>181</v>
       </c>
@@ -3242,33 +3286,41 @@
         <v>137</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="9" t="s">
+      <c r="B57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>181</v>
       </c>
@@ -3282,13 +3334,13 @@
         <v>137</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>181</v>
       </c>
@@ -3302,30 +3354,30 @@
         <v>137</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
-        <v>3</v>
+      <c r="A60" s="33" t="s">
+        <v>181</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -3342,50 +3394,50 @@
         <v>162</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>3</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>324</v>
+        <v>73</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>3</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -3402,53 +3454,53 @@
         <v>74</v>
       </c>
       <c r="E64" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <v>3</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F65" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
+    <row r="66" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
         <v>3</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D66" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E66" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F66" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
-        <v>3</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>3</v>
       </c>
@@ -3459,85 +3511,85 @@
         <v>38</v>
       </c>
       <c r="D67" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="22">
+        <v>3</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F68" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="G67" s="45"/>
-    </row>
-    <row r="68" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="27">
+      <c r="G68" s="45"/>
+    </row>
+    <row r="69" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="27">
         <v>4</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="26">
-        <v>4</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>179</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="F69" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="26">
+        <v>4</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F70" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
-        <v>7</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>7</v>
       </c>
@@ -3548,22 +3600,14 @@
         <v>40</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+        <v>232</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
@@ -3579,10 +3623,10 @@
         <v>81</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="47"/>
@@ -3593,25 +3637,33 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A73" s="29">
+    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
         <v>7</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" s="9" t="s">
+      <c r="C73" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>235</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
     </row>
     <row r="74" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
@@ -3624,86 +3676,78 @@
         <v>40</v>
       </c>
       <c r="D74" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A75" s="29">
+        <v>7</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F75" s="14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="31">
+    <row r="76" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="31">
         <v>8</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B76" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="C76" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F76" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>133</v>
+      <c r="C77" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="12" t="s">
@@ -3712,11 +3756,11 @@
       <c r="D78" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E78" s="9" t="s">
-        <v>3</v>
+      <c r="E78" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G78" s="47"/>
       <c r="H78" s="47"/>
@@ -3727,7 +3771,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
         <v>183</v>
       </c>
@@ -3738,13 +3782,13 @@
         <v>40</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G79" s="47"/>
       <c r="H79" s="47"/>
@@ -3755,7 +3799,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="80" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
         <v>183</v>
       </c>
@@ -3769,13 +3813,21 @@
         <v>149</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
         <v>183</v>
       </c>
@@ -3786,44 +3838,44 @@
         <v>40</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="47"/>
-      <c r="J81" s="47"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>155</v>
+      <c r="C82" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>329</v>
+        <v>4</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
         <v>183</v>
       </c>
@@ -3837,73 +3889,73 @@
         <v>155</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="35" t="s">
         <v>183</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>169</v>
+        <v>330</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
         <v>183</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C85" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F86" s="14" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="29">
-        <v>7</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>7</v>
       </c>
@@ -3914,16 +3966,16 @@
         <v>39</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
         <v>7</v>
       </c>
@@ -3934,16 +3986,16 @@
         <v>39</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F88" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>7</v>
       </c>
@@ -3954,56 +4006,56 @@
         <v>39</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F89" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="29">
         <v>7</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
-        <v>181</v>
+    <row r="91" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="29">
+        <v>7</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F91" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>181</v>
       </c>
@@ -4014,49 +4066,41 @@
         <v>39</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F92" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="34" t="s">
+    <row r="93" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="12" t="s">
+      <c r="B93" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>171</v>
+      <c r="D93" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="F93" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="34" t="s">
         <v>181</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>39</v>
@@ -4065,7 +4109,7 @@
         <v>171</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F94" s="14" t="s">
         <v>142</v>
@@ -4080,26 +4124,34 @@
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>81</v>
+      <c r="B95" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
         <v>181</v>
       </c>
@@ -4113,111 +4165,111 @@
         <v>81</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F96" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>137</v>
+      <c r="B97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
     </row>
     <row r="98" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="21">
+      <c r="A98" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
         <v>2</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B99" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C99" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D99" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E99" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="F99" s="14" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="19">
+    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="19">
         <v>1</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B100" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C100" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D100" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E100" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F99" s="14" t="s">
+      <c r="F100" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="18">
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="47"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="18">
         <v>1</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="20">
-        <v>1.1000000000000001</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>154</v>
@@ -4229,33 +4281,33 @@
         <v>129</v>
       </c>
       <c r="E101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F101" s="14" t="s">
+      <c r="F102" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="18">
-        <v>1</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
         <v>1</v>
       </c>
@@ -4269,13 +4321,13 @@
         <v>81</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A104" s="18">
         <v>1</v>
       </c>
@@ -4289,59 +4341,59 @@
         <v>81</v>
       </c>
       <c r="E104" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="18">
+        <v>1</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E105" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="F105" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47"/>
-      <c r="J105" s="47"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B106" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="14" t="s">
+      <c r="B106" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>208</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G106" s="47"/>
+      <c r="H106" s="47"/>
+      <c r="I106" s="47"/>
+      <c r="J106" s="47"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
@@ -4357,101 +4409,101 @@
         <v>81</v>
       </c>
       <c r="E107" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F108" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="18">
+    <row r="109" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="18">
         <v>1.2</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B109" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C109" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D109" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E109" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F108" s="14" t="s">
+      <c r="F109" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="22">
+    <row r="110" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="22">
         <v>3</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="9" t="s">
+      <c r="B110" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D110" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E110" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F110" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="25">
+    <row r="111" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="25">
         <v>5</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47"/>
-      <c r="J110" s="47"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-    </row>
-    <row r="111" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="24">
-        <v>5</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="9" t="s">
+      <c r="B111" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+    </row>
+    <row r="112" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
         <v>5</v>
       </c>
@@ -4465,10 +4517,10 @@
         <v>180</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4485,13 +4537,13 @@
         <v>180</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="204.75" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
         <v>5</v>
       </c>
@@ -4505,13 +4557,13 @@
         <v>180</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>330</v>
+        <v>119</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
         <v>5</v>
       </c>
@@ -4525,39 +4577,31 @@
         <v>180</v>
       </c>
       <c r="E115" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="24">
+        <v>5</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F115" s="14" t="s">
+      <c r="F116" s="14" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="30">
-        <v>7</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="47"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
     </row>
     <row r="117" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="30">
@@ -4573,53 +4617,61 @@
         <v>93</v>
       </c>
       <c r="E117" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="30">
+        <v>7</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F117" s="14" t="s">
+      <c r="F118" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="29">
-        <v>7</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="29">
         <v>7</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="B119" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="29">
         <v>7</v>
       </c>
@@ -4633,13 +4685,13 @@
         <v>93</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A121" s="29">
         <v>7</v>
       </c>
@@ -4653,101 +4705,101 @@
         <v>93</v>
       </c>
       <c r="E121" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A122" s="29">
+        <v>7</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E122" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F121" s="14" t="s">
+      <c r="F122" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="30">
+    <row r="123" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="30">
         <v>7</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D122" s="8" t="s">
+      <c r="B123" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E123" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="14" t="s">
+      <c r="F123" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="29">
+    <row r="124" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="29">
         <v>7</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D123" s="9" t="s">
+      <c r="B124" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E124" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F123" s="14" t="s">
+      <c r="F124" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="30">
+    <row r="125" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="30">
         <v>7</v>
       </c>
-      <c r="B124" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" s="8" t="s">
+      <c r="B125" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E125" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F124" s="14" t="s">
+      <c r="F125" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
-      <c r="I124" s="47"/>
-      <c r="J124" s="47"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
-    </row>
-    <row r="125" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="29">
-        <v>7</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="47"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+    </row>
+    <row r="126" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="29">
         <v>7</v>
       </c>
@@ -4761,13 +4813,13 @@
         <v>137</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A127" s="29">
         <v>7</v>
       </c>
@@ -4781,41 +4833,33 @@
         <v>137</v>
       </c>
       <c r="E127" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A128" s="29">
+        <v>7</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F127" s="14" t="s">
+      <c r="F128" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="31">
-        <v>8</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="47"/>
-      <c r="J128" s="47"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-    </row>
-    <row r="129" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A129" s="31">
         <v>8</v>
       </c>
@@ -4829,13 +4873,21 @@
         <v>150</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="47"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+    </row>
+    <row r="130" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="31">
         <v>8</v>
       </c>
@@ -4849,13 +4901,13 @@
         <v>150</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="31">
         <v>8</v>
       </c>
@@ -4869,33 +4921,33 @@
         <v>150</v>
       </c>
       <c r="E131" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="31">
+        <v>8</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F131" s="14" t="s">
+      <c r="F132" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="32">
-        <v>8</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="32">
         <v>8</v>
       </c>
@@ -4909,13 +4961,13 @@
         <v>137</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="32">
         <v>8</v>
       </c>
@@ -4929,13 +4981,13 @@
         <v>137</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="32">
         <v>8</v>
       </c>
@@ -4949,13 +5001,13 @@
         <v>137</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A136" s="32">
         <v>8</v>
       </c>
@@ -4969,13 +5021,13 @@
         <v>137</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="32">
         <v>8</v>
       </c>
@@ -4989,13 +5041,13 @@
         <v>137</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A138" s="32">
         <v>8</v>
       </c>
@@ -5009,61 +5061,88 @@
         <v>137</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A139" s="32">
         <v>8</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>335</v>
+        <v>13</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>332</v>
+        <v>103</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G139" s="46">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="32">
         <v>8</v>
       </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="14"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E142" s="2" t="s">
+      <c r="B140" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="32">
+        <v>8</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E143" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B151" s="4" t="s">
+    <row r="152" spans="2:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C152" s="9" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:N39">
-    <sortCondition ref="C14:C39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N153">
+    <sortCondition ref="H2:H153"/>
   </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
